--- a/sentiment_index.xlsx
+++ b/sentiment_index.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.15</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.05</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.15</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.05</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05</v>
+        <v>-0.095</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.05</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.15</v>
+        <v>-0.105</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.05</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.05</v>
+        <v>-0.065</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.05</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.05</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.05</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.1</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.05</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.3</v>
+        <v>-0.105</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.25</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.05</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2</v>
+        <v>-0.075</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.05</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2</v>
+        <v>-0.195</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.25</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.15</v>
+        <v>-0.195</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1</v>
+        <v>-0.08500000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.15</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.15</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.35</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.25</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.05</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1</v>
+        <v>-0.065</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.05</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1</v>
+        <v>-0.235</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.25</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="84">
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E84" t="n">
         <v>-0.15</v>
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.15</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.2</v>
+        <v>-0.335</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.25</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.05</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.2</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.3</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.05</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.05</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.1</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.15</v>
+        <v>-0.305</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.15</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.095</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_index.xlsx
+++ b/sentiment_index.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.065</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.015</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.14</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.255</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.145</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.08</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.23</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.065</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.09</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.045</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.045</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.105</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.115</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.035</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.195</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.17</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.005</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.02</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.18</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.15</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.195</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.315</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.08500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.19</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.115</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.26</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.065</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.235</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.17</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.115</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.215</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.06</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.05</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.21</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.24</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.095</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_index.xlsx
+++ b/sentiment_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,963 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>19</v>
+      </c>
+      <c r="D102" t="n">
+        <v>67</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-04-11</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>24</v>
+      </c>
+      <c r="D103" t="n">
+        <v>63</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-04-12</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>38</v>
+      </c>
+      <c r="D104" t="n">
+        <v>51</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>27</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>24</v>
+      </c>
+      <c r="D106" t="n">
+        <v>62</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>17</v>
+      </c>
+      <c r="D107" t="n">
+        <v>69</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>15</v>
+      </c>
+      <c r="D108" t="n">
+        <v>74</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>25</v>
+      </c>
+      <c r="D109" t="n">
+        <v>57</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-04-18</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>14</v>
+      </c>
+      <c r="D110" t="n">
+        <v>73</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>28</v>
+      </c>
+      <c r="D111" t="n">
+        <v>56</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>14</v>
+      </c>
+      <c r="D112" t="n">
+        <v>70</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>23</v>
+      </c>
+      <c r="D113" t="n">
+        <v>62</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>24</v>
+      </c>
+      <c r="D114" t="n">
+        <v>61</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>23</v>
+      </c>
+      <c r="D115" t="n">
+        <v>56</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>24</v>
+      </c>
+      <c r="D116" t="n">
+        <v>61</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>18</v>
+      </c>
+      <c r="D117" t="n">
+        <v>64</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>15</v>
+      </c>
+      <c r="D118" t="n">
+        <v>62</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>13</v>
+      </c>
+      <c r="D119" t="n">
+        <v>71</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>22</v>
+      </c>
+      <c r="D120" t="n">
+        <v>58</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>19</v>
+      </c>
+      <c r="D121" t="n">
+        <v>71</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>26</v>
+      </c>
+      <c r="D122" t="n">
+        <v>59</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>31</v>
+      </c>
+      <c r="D123" t="n">
+        <v>53</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>14</v>
+      </c>
+      <c r="D124" t="n">
+        <v>66</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>27</v>
+      </c>
+      <c r="D125" t="n">
+        <v>61</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>62</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>18</v>
+      </c>
+      <c r="D127" t="n">
+        <v>58</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>19</v>
+      </c>
+      <c r="D128" t="n">
+        <v>70</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>19</v>
+      </c>
+      <c r="D129" t="n">
+        <v>66</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>21</v>
+      </c>
+      <c r="D130" t="n">
+        <v>57</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>28</v>
+      </c>
+      <c r="D131" t="n">
+        <v>57</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-05-10</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>24</v>
+      </c>
+      <c r="D132" t="n">
+        <v>64</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>20</v>
+      </c>
+      <c r="D133" t="n">
+        <v>64</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>83</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>26</v>
+      </c>
+      <c r="D135" t="n">
+        <v>62</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>23</v>
+      </c>
+      <c r="D136" t="n">
+        <v>52</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>18</v>
+      </c>
+      <c r="D137" t="n">
+        <v>66</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>31</v>
+      </c>
+      <c r="D138" t="n">
+        <v>56</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>17</v>
+      </c>
+      <c r="D139" t="n">
+        <v>60</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>16</v>
+      </c>
+      <c r="D140" t="n">
+        <v>61</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>18</v>
+      </c>
+      <c r="D141" t="n">
+        <v>61</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>22</v>
+      </c>
+      <c r="D142" t="n">
+        <v>56</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>13</v>
+      </c>
+      <c r="D143" t="n">
+        <v>66</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>33</v>
+      </c>
+      <c r="D144" t="n">
+        <v>51</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>11</v>
+      </c>
+      <c r="D145" t="n">
+        <v>63</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>13</v>
+      </c>
+      <c r="D146" t="n">
+        <v>74</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>20</v>
+      </c>
+      <c r="D147" t="n">
+        <v>71</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>67</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>26</v>
+      </c>
+      <c r="D149" t="n">
+        <v>53</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>31</v>
+      </c>
+      <c r="D150" t="n">
+        <v>55</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>74</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_index.xlsx
+++ b/sentiment_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.36</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.26</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.38</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.47</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.28</v>
+        <v>-0.365</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.32</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3</v>
+        <v>-0.415</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.34</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.36</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.37</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.57</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.35</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.21</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.34</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.37</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.41</v>
+        <v>-0.595</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.35</v>
+        <v>-0.525</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.42</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.45</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.27</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.42</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.39</v>
+        <v>-0.365</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.37</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.38</v>
+        <v>-0.395</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.545</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.4</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.45</v>
+        <v>-0.605</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.46</v>
+        <v>-0.465</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.585</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.58</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.29</v>
+        <v>-0.335</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.36</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.44</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.42</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.26</v>
+        <v>-0.485</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.34</v>
+        <v>-0.525</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.63</v>
+        <v>-0.575</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.33</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D44" t="n">
         <v>71</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.52</v>
+        <v>-0.075</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.32</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.4</v>
+        <v>-0.415</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D47" t="n">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.31</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.45</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D49" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.35</v>
+        <v>-0.415</v>
       </c>
     </row>
     <row r="50">
@@ -1380,10 +1380,10 @@
         <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.33</v>
+        <v>-0.525</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.4</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.36</v>
+        <v>-0.335</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.48</v>
+        <v>-0.465</v>
       </c>
     </row>
     <row r="54">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D54" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E54" t="n">
         <v>-0.41</v>
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.44</v>
+        <v>-0.555</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.39</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.41</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.44</v>
+        <v>-0.435</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.49</v>
+        <v>-0.555</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.44</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.43</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.47</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="66">
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E66" t="n">
         <v>-0.46</v>
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.21</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D70" t="n">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.33</v>
+        <v>-0.635</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D71" t="n">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.39</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.15</v>
+        <v>-0.455</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D74" t="n">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.62</v>
+        <v>-0.555</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75" t="n">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.36</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D76" t="n">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.41</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.34</v>
+        <v>-0.545</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D78" t="n">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.43</v>
+        <v>-0.435</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.47</v>
+        <v>-0.605</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D81" t="n">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.55</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.43</v>
+        <v>-0.615</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.52</v>
+        <v>-0.595</v>
       </c>
     </row>
     <row r="84">
@@ -2026,10 +2026,10 @@
         <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.27</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.36</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.55</v>
+        <v>-0.645</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.39</v>
+        <v>-0.5649999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D88" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.27</v>
+        <v>-0.615</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.51</v>
+        <v>-0.5649999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D90" t="n">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.6</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.41</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.36</v>
+        <v>-0.585</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.48</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D94" t="n">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.35</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.28</v>
+        <v>-0.345</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.52</v>
+        <v>-0.605</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5</v>
+        <v>-0.635</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D98" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.39</v>
+        <v>-0.515</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D99" t="n">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.62</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D100" t="n">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.53</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="101">
@@ -2346,963 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D101" t="n">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2020-04-10</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>19</v>
-      </c>
-      <c r="D102" t="n">
-        <v>67</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2020-04-11</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>24</v>
-      </c>
-      <c r="D103" t="n">
-        <v>63</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2020-04-12</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>38</v>
-      </c>
-      <c r="D104" t="n">
-        <v>51</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2020-04-13</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>27</v>
-      </c>
-      <c r="D105" t="n">
-        <v>62</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2020-04-14</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>24</v>
-      </c>
-      <c r="D106" t="n">
-        <v>62</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2020-04-15</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>17</v>
-      </c>
-      <c r="D107" t="n">
-        <v>69</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2020-04-16</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>15</v>
-      </c>
-      <c r="D108" t="n">
-        <v>74</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2020-04-17</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>25</v>
-      </c>
-      <c r="D109" t="n">
-        <v>57</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2020-04-18</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>14</v>
-      </c>
-      <c r="D110" t="n">
-        <v>73</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2020-04-19</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>28</v>
-      </c>
-      <c r="D111" t="n">
-        <v>56</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2020-04-20</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>14</v>
-      </c>
-      <c r="D112" t="n">
-        <v>70</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2020-04-21</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>23</v>
-      </c>
-      <c r="D113" t="n">
-        <v>62</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2020-04-22</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>24</v>
-      </c>
-      <c r="D114" t="n">
-        <v>61</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2020-04-23</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>23</v>
-      </c>
-      <c r="D115" t="n">
-        <v>56</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2020-04-24</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>24</v>
-      </c>
-      <c r="D116" t="n">
-        <v>61</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2020-04-25</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>18</v>
-      </c>
-      <c r="D117" t="n">
-        <v>64</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2020-04-26</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>15</v>
-      </c>
-      <c r="D118" t="n">
-        <v>62</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2020-04-27</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>13</v>
-      </c>
-      <c r="D119" t="n">
-        <v>71</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2020-04-28</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>22</v>
-      </c>
-      <c r="D120" t="n">
-        <v>58</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2020-04-29</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>19</v>
-      </c>
-      <c r="D121" t="n">
-        <v>71</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2020-04-30</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>26</v>
-      </c>
-      <c r="D122" t="n">
-        <v>59</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2020-05-01</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>31</v>
-      </c>
-      <c r="D123" t="n">
-        <v>53</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2020-05-02</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>14</v>
-      </c>
-      <c r="D124" t="n">
-        <v>66</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2020-05-03</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>27</v>
-      </c>
-      <c r="D125" t="n">
-        <v>61</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2020-05-04</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>19</v>
-      </c>
-      <c r="D126" t="n">
-        <v>62</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2020-05-05</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>18</v>
-      </c>
-      <c r="D127" t="n">
-        <v>58</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2020-05-06</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>19</v>
-      </c>
-      <c r="D128" t="n">
-        <v>70</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2020-05-07</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>19</v>
-      </c>
-      <c r="D129" t="n">
-        <v>66</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2020-05-08</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>21</v>
-      </c>
-      <c r="D130" t="n">
-        <v>57</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2020-05-09</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>28</v>
-      </c>
-      <c r="D131" t="n">
-        <v>57</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2020-05-10</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>24</v>
-      </c>
-      <c r="D132" t="n">
-        <v>64</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2020-05-11</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>20</v>
-      </c>
-      <c r="D133" t="n">
-        <v>64</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2020-05-12</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>83</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2020-05-13</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>26</v>
-      </c>
-      <c r="D135" t="n">
-        <v>62</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2020-05-14</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>23</v>
-      </c>
-      <c r="D136" t="n">
-        <v>52</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2020-05-15</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>18</v>
-      </c>
-      <c r="D137" t="n">
-        <v>66</v>
-      </c>
-      <c r="E137" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2020-05-16</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>31</v>
-      </c>
-      <c r="D138" t="n">
-        <v>56</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2020-05-17</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>17</v>
-      </c>
-      <c r="D139" t="n">
-        <v>60</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2020-05-18</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>16</v>
-      </c>
-      <c r="D140" t="n">
-        <v>61</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2020-05-19</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>18</v>
-      </c>
-      <c r="D141" t="n">
-        <v>61</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2020-05-20</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>22</v>
-      </c>
-      <c r="D142" t="n">
-        <v>56</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2020-05-21</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>13</v>
-      </c>
-      <c r="D143" t="n">
-        <v>66</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2020-05-22</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>33</v>
-      </c>
-      <c r="D144" t="n">
-        <v>51</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2020-05-23</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>11</v>
-      </c>
-      <c r="D145" t="n">
-        <v>63</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2020-05-24</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>13</v>
-      </c>
-      <c r="D146" t="n">
-        <v>74</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2020-05-25</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>20</v>
-      </c>
-      <c r="D147" t="n">
-        <v>71</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2020-05-26</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>15</v>
-      </c>
-      <c r="D148" t="n">
-        <v>67</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2020-05-27</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>26</v>
-      </c>
-      <c r="D149" t="n">
-        <v>53</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2020-05-28</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>31</v>
-      </c>
-      <c r="D150" t="n">
-        <v>55</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2020-05-29</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>8</v>
-      </c>
-      <c r="D151" t="n">
-        <v>74</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-0.66</v>
+        <v>-0.505</v>
       </c>
     </row>
   </sheetData>

--- a/sentiment_index.xlsx
+++ b/sentiment_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.33</v>
+        <v>-0.395</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4</v>
+        <v>-0.455</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.35</v>
+        <v>-0.4625</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.405</v>
+        <v>-0.4825</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.47</v>
+        <v>-0.5425</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.365</v>
+        <v>-0.4625</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D8" t="n">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.475</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D9" t="n">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.415</v>
+        <v>-0.4775</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.44</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.41</v>
+        <v>-0.4175</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D12" t="n">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.47</v>
+        <v>-0.485</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D14" t="n">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.51</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.31</v>
+        <v>-0.4575</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.39</v>
+        <v>-0.4525</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="E17" t="n">
         <v>-0.425</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.35</v>
+        <v>-0.4325</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.595</v>
+        <v>-0.5125</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D20" t="n">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.525</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D21" t="n">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.505</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.425</v>
+        <v>-0.5175</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D23" t="n">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.39</v>
+        <v>-0.4075</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D24" t="n">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.405</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D25" t="n">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.365</v>
+        <v>-0.4925</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.35</v>
+        <v>-0.4775</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D27" t="n">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.395</v>
+        <v>-0.4675</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.545</v>
+        <v>-0.585</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D29" t="n">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.43</v>
+        <v>-0.4675</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.605</v>
+        <v>-0.5575</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.465</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.585</v>
+        <v>-0.485</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D33" t="n">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.54</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.335</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D35" t="n">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.52</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D36" t="n">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.405</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D37" t="n">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.39</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D38" t="n">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.485</v>
+        <v>-0.4125</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D39" t="n">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.425</v>
+        <v>-0.5225</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D40" t="n">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.38</v>
+        <v>-0.4825</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D41" t="n">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.525</v>
+        <v>-0.465</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D42" t="n">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.575</v>
+        <v>-0.5925</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D43" t="n">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.515</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.075</v>
+        <v>-0.4225</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D45" t="n">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.46</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D46" t="n">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.415</v>
+        <v>-0.3775</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D47" t="n">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.4</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D48" t="n">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.385</v>
+        <v>-0.435</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.415</v>
+        <v>-0.555</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D50" t="n">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.525</v>
+        <v>-0.495</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D51" t="n">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.42</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.335</v>
+        <v>-0.5725</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D53" t="n">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.465</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D54" t="n">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.41</v>
+        <v>-0.5225</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D55" t="n">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.52</v>
+        <v>-0.6274999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D56" t="n">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.555</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D57" t="n">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.49</v>
+        <v>-0.5649999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D58" t="n">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.39</v>
+        <v>-0.555</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D59" t="n">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.435</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D60" t="n">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.555</v>
+        <v>-0.575</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D61" t="n">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.55</v>
+        <v>-0.5325</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D62" t="n">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.53</v>
+        <v>-0.635</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D63" t="n">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.44</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D64" t="n">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6</v>
+        <v>-0.545</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D65" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.49</v>
+        <v>-0.4325</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D66" t="n">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.46</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.46</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D68" t="n">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.53</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D69" t="n">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.63</v>
+        <v>-0.5375</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D70" t="n">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.635</v>
+        <v>-0.595</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D71" t="n">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.54</v>
+        <v>-0.5024999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D72" t="n">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.455</v>
+        <v>-0.4675</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D73" t="n">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.44</v>
+        <v>-0.4475</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.555</v>
+        <v>-0.655</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D75" t="n">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.5675</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D76" t="n">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.28</v>
+        <v>-0.5024999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D77" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.545</v>
+        <v>-0.5925</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D78" t="n">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.63</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.435</v>
+        <v>-0.5675</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D80" t="n">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.605</v>
+        <v>-0.5725</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D81" t="n">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.68</v>
+        <v>-0.5825</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.615</v>
+        <v>-0.6075</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.595</v>
+        <v>-0.665</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D84" t="n">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D85" t="n">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.475</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="86">
@@ -2061,10 +2061,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D86" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="E86" t="n">
         <v>-0.645</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D87" t="n">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.5575</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D88" t="n">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.615</v>
+        <v>-0.5725</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D89" t="n">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.62</v>
+        <v>-0.695</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D91" t="n">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.59</v>
+        <v>-0.5575</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.585</v>
+        <v>-0.515</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.53</v>
+        <v>-0.5975</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D94" t="n">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.345</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D96" t="n">
-        <v>148</v>
+        <v>285</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.605</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.635</v>
+        <v>-0.585</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D98" t="n">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.515</v>
+        <v>-0.555</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D99" t="n">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.59</v>
+        <v>-0.535</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D100" t="n">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.54</v>
+        <v>-0.5649999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,583 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
+        <v>258</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>40</v>
+      </c>
+      <c r="D102" t="n">
+        <v>303</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.6575</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-04-11</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>64</v>
+      </c>
+      <c r="D103" t="n">
+        <v>275</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.5275</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-04-12</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>126</v>
+      </c>
+      <c r="D104" t="n">
+        <v>228</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.255</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>51</v>
+      </c>
+      <c r="D105" t="n">
+        <v>289</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.595</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>54</v>
+      </c>
+      <c r="D106" t="n">
+        <v>273</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.5475</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>46</v>
+      </c>
+      <c r="D107" t="n">
+        <v>274</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>57</v>
+      </c>
+      <c r="D108" t="n">
+        <v>249</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>51</v>
+      </c>
+      <c r="D109" t="n">
+        <v>271</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-04-18</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>39</v>
+      </c>
+      <c r="D110" t="n">
+        <v>294</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.6375</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>45</v>
+      </c>
+      <c r="D111" t="n">
+        <v>294</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.6225000000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>46</v>
+      </c>
+      <c r="D112" t="n">
+        <v>279</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.5825</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>78</v>
+      </c>
+      <c r="D113" t="n">
+        <v>176</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>45</v>
+      </c>
+      <c r="D114" t="n">
+        <v>277</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>42</v>
+      </c>
+      <c r="D115" t="n">
+        <v>263</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.5525</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>65</v>
+      </c>
+      <c r="D116" t="n">
+        <v>254</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.4725</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>61</v>
+      </c>
+      <c r="D117" t="n">
+        <v>276</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.5375</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>64</v>
+      </c>
+      <c r="D118" t="n">
+        <v>254</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.475</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>39</v>
+      </c>
+      <c r="D119" t="n">
+        <v>272</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.5825</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>58</v>
+      </c>
+      <c r="D120" t="n">
+        <v>256</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.495</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>49</v>
+      </c>
+      <c r="D121" t="n">
+        <v>272</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.5575</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>57</v>
+      </c>
+      <c r="D122" t="n">
+        <v>258</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.5024999999999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>83</v>
+      </c>
+      <c r="D123" t="n">
+        <v>252</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.4225</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>56</v>
+      </c>
+      <c r="D124" t="n">
+        <v>261</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.5125</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>68</v>
+      </c>
+      <c r="D125" t="n">
+        <v>266</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.495</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="E101" t="n">
-        <v>-0.505</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>53</v>
+      </c>
+      <c r="D126" t="n">
+        <v>237</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>42</v>
+      </c>
+      <c r="D127" t="n">
+        <v>262</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>90</v>
+      </c>
+      <c r="D128" t="n">
+        <v>244</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.385</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>38</v>
+      </c>
+      <c r="D129" t="n">
+        <v>279</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.6025</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>52</v>
+      </c>
+      <c r="D130" t="n">
+        <v>274</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.555</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>45</v>
+      </c>
+      <c r="D131" t="n">
+        <v>263</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.545</v>
       </c>
     </row>
   </sheetData>
